--- a/downloaded_files/CMPS303_Tutorial-35534.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -120,6 +120,15 @@
     <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230346</x:t>
   </x:si>
   <x:si>
@@ -136,6 +145,12 @@
   </x:si>
   <x:si>
     <x:t>Ali Mahmoud Ali Kamal Hassan Khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمار عماد حمدى محمد عدس</x:t>
   </x:si>
   <x:si>
     <x:t>1240100</x:t>
@@ -362,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -671,7 +686,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.530625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1071,7 +1086,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45920.1213704861</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1103,7 +1118,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1135,7 +1150,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1163,11 +1178,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1190,16 +1203,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1222,14 +1235,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1261,7 +1276,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1289,11 +1304,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1316,16 +1329,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1348,16 +1361,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1380,16 +1393,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1412,16 +1425,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1444,16 +1457,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1476,16 +1489,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1508,14 +1521,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1532,6 +1547,68 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s"/>
+      <x:c r="E28" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35534.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35534.xlsx
@@ -39,6 +39,24 @@
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
+    <x:t>1240005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد خالد سعد محمود سلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed khaled saad mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد يحى سعد السيد نافع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yehya Saad Nafea</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230019</x:t>
   </x:si>
   <x:si>
@@ -48,15 +66,6 @@
     <x:t>omnia ismail hassan yehia</x:t>
   </x:si>
   <x:si>
-    <x:t>1230294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انطون مجدي يعقوب نظير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANTON</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230022</x:t>
   </x:si>
   <x:si>
@@ -160,15 +169,6 @@
   </x:si>
   <x:si>
     <x:t>Omar EL-syed Mohammed EL-kholy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد قناوي محمود مصلح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Kenawi Mahmoud Mosleh</x:t>
   </x:si>
   <x:si>
     <x:t>1230077</x:t>
@@ -766,7 +766,7 @@
       </x:c>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45907.8389292014</x:v>
+        <x:v>45927.6184551736</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -798,7 +798,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.5686462963</x:v>
+        <x:v>45927.4153984954</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -830,7 +830,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.5586840625</x:v>
+        <x:v>45927.4252852199</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -862,7 +862,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4292636921</x:v>
+        <x:v>45914.5686462963</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -894,7 +894,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45916.0178555556</x:v>
+        <x:v>45907.4292636921</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -926,7 +926,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6483199074</x:v>
+        <x:v>45916.0178555556</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -958,7 +958,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6750560995</x:v>
+        <x:v>45909.6483199074</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -990,7 +990,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4202421296</x:v>
+        <x:v>45907.6750560995</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1022,7 +1022,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4201238079</x:v>
+        <x:v>45907.4202421296</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1054,7 +1054,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.4201238079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1086,7 +1086,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.1213704861</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1118,7 +1118,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45920.1213704861</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1150,7 +1150,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,9 +1178,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45920.0753043634</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1203,16 +1205,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1244,7 +1244,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/CMPS303_Tutorial-35534.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -195,6 +195,15 @@
     <x:t>Kareem Hussein Abdulrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1230086</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لجين خالد رمضان محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lojain khaled ramadan mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230231</x:t>
   </x:si>
   <x:si>
@@ -262,6 +271,15 @@
   </x:si>
   <x:si>
     <x:t>يوسف محمد بدر الدين حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد عبدالرحمن عبدالعزيز السيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Abdelrahman Abdelaziz Elsayed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -377,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -686,7 +704,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="50.930625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -766,7 +784,7 @@
       </x:c>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45927.6184551736</x:v>
+        <x:v>45927.965468287</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1370,7 +1388,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45927.9417397338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1420,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1452,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1484,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1516,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1548,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1562,7 +1580,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1590,9 +1608,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1609,6 +1629,68 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s"/>
+      <x:c r="E29" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45928.0101290509</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35534.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,15 +127,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
   </x:si>
   <x:si>
     <x:t>1230346</x:t>
@@ -395,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1136,7 +1127,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45920.1213704861</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,7 +1159,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,11 +1187,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1223,14 +1212,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45920.0753043634</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1262,7 +1253,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1290,11 +1281,9 @@
       <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1317,14 +1306,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1347,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45927.9417397338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1379,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.9417397338</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1411,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1443,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1475,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1507,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1539,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1571,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1608,11 +1599,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1635,14 +1624,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1659,38 +1650,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35534.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,12 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
     <x:t>1240005</x:t>
@@ -386,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -773,9 +767,11 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.965468287</x:v>
+        <x:v>45927.4153984954</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -798,16 +794,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4153984954</x:v>
+        <x:v>45927.4252852199</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -830,16 +826,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4252852199</x:v>
+        <x:v>45914.5686462963</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -862,16 +858,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.5686462963</x:v>
+        <x:v>45907.4292636921</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -894,16 +890,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4292636921</x:v>
+        <x:v>45916.0178555556</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -926,16 +922,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45916.0178555556</x:v>
+        <x:v>45909.6483199074</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -958,16 +954,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6483199074</x:v>
+        <x:v>45907.6750560995</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -990,16 +986,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6750560995</x:v>
+        <x:v>45907.4202421296</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1022,16 +1018,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4202421296</x:v>
+        <x:v>45907.4201238079</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1054,16 +1050,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4201238079</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1086,16 +1082,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1118,16 +1114,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1150,16 +1146,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,9 +1181,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45920.0753043634</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1212,16 +1208,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1244,16 +1240,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1281,9 +1275,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,16 +1302,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45927.9417397338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,16 +1334,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.9417397338</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,16 +1366,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,16 +1398,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,16 +1430,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,16 +1462,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,16 +1494,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,16 +1526,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1562,16 +1558,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1599,9 +1593,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1618,38 +1614,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35534.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Basel ahmed mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم ايهاب فاروق فاوي مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem ehab farouk fawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220234</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -899,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45916.0178555556</x:v>
+        <x:v>45909.6483199074</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6483199074</x:v>
+        <x:v>45907.6750560995</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6750560995</x:v>
+        <x:v>45907.4202421296</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4202421296</x:v>
+        <x:v>45907.4201238079</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4201238079</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1119,11 +1110,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,14 +1135,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45920.0753043634</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1185,7 +1176,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1213,11 +1204,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1240,14 +1229,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1279,7 +1270,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45927.9417397338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1311,7 +1302,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.9417397338</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1343,7 +1334,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1375,7 +1366,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1407,7 +1398,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1439,7 +1430,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1471,7 +1462,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1503,7 +1494,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1531,11 +1522,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1558,14 +1547,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1582,38 +1573,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35534.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -48,7 +48,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230019</x:t>
@@ -223,15 +223,6 @@
   </x:si>
   <x:si>
     <x:t>Waleyeldeen Ahmed Hussein Mahmoud Othman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1230288</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1462,7 +1453,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1490,11 +1481,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1517,14 +1506,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1541,38 +1532,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Tutorial-35534.xlsx
+++ b/downloaded_files/CMPS303_Tutorial-35534.xlsx
@@ -213,7 +213,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1230279</x:t>
